--- a/Desenvolvimento/4.Teste/HD - Roteiro de Teste.xlsx
+++ b/Desenvolvimento/4.Teste/HD - Roteiro de Teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Área de Trabalho\Healthy_Delivery\Desenvolvimento\4.Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D931B4-4CAB-4ACB-9362-DD9CF31260A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD65BC5F-DB72-467C-8890-992905FAFE06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="913" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="AUX" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="UC01 - Manter produtos" sheetId="3" r:id="rId3"/>
     <sheet name="UC02 - Gerenciar Categoria" sheetId="26" r:id="rId4"/>
-    <sheet name="UC03 - Manter usuários" sheetId="31" r:id="rId5"/>
+    <sheet name="UC03 - Cadastrar-se" sheetId="31" r:id="rId5"/>
     <sheet name="UC04 - Fazer pedido" sheetId="32" r:id="rId6"/>
     <sheet name="UC05 - Gerenciar Balconistas" sheetId="34" r:id="rId7"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -124,18 +124,9 @@
     <t>Excluir um produto</t>
   </si>
   <si>
-    <t>id do produto</t>
-  </si>
-  <si>
     <t>Editar algum produto</t>
   </si>
   <si>
-    <t>Nome, descrição, valor, categoria que ele pertence, descrição longa, foto e se é combo ou não</t>
-  </si>
-  <si>
-    <t>Nome, descrição, valor, categoria que ele pertence, descrição longa, combo</t>
-  </si>
-  <si>
     <t>Plano de Ação</t>
   </si>
   <si>
@@ -151,18 +142,12 @@
     <t>Cadastrar uma nova Categoria</t>
   </si>
   <si>
-    <t>Nome, descrição e foto</t>
-  </si>
-  <si>
     <t>Excluir uma categoria</t>
   </si>
   <si>
     <t>Editar uma Categoria</t>
   </si>
   <si>
-    <t>id da categoria</t>
-  </si>
-  <si>
     <t>O produto ser cadastrado com sucesso e ser listado na tabela de produtos</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>Realizar login como administrador</t>
   </si>
   <si>
-    <t>E-mail e senha</t>
-  </si>
-  <si>
     <t>Realizar login como cliente</t>
   </si>
   <si>
@@ -202,12 +184,6 @@
     <t>Recuperar senha</t>
   </si>
   <si>
-    <t>Nome e sobrenome, cpf, telefone, E-mail e senha</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t>**Realizar login como adm ou cliente: 1ºEntrar no site // 2ºClicar em login // 3ºInserir os dados//4ºClicar em Logar    **Cadastrar-se: 1ºEntrar no site//2ºClicar em login//3°Clicar em Cadastre-se//4°Preencher os dados//5°Clicar em Cadastrar                                                                                                                                                                    **Recuperar senha: 1ºEntrar no site // 2ºClicar em login//3°Clicar em Recuperarsenha//4°Inserir E-mail//5°Clicar em Recuperar</t>
   </si>
   <si>
@@ -232,15 +208,9 @@
     <t>Pagamento e entrega</t>
   </si>
   <si>
-    <t>Formas de pagamento,rua,numero,bairro,cidade</t>
-  </si>
-  <si>
     <t>Adicionar produtos ao carrinho</t>
   </si>
   <si>
-    <t>id, id do pedido, id do produto, cpf do cliente e quantidade de produtos no carrinho</t>
-  </si>
-  <si>
     <t>Aparecer a mensagem de pedido finalizado e ser redirecionado para tela de login</t>
   </si>
   <si>
@@ -271,12 +241,6 @@
     <t>Editar um balconista</t>
   </si>
   <si>
-    <t>cpf, nome, telefone e E-mail</t>
-  </si>
-  <si>
-    <t>id do balconista</t>
-  </si>
-  <si>
     <t>O balconista ser cadastrado com sucesso e ser listado na tabela de usuarios</t>
   </si>
   <si>
@@ -284,13 +248,44 @@
   </si>
   <si>
     <t>O balconista ser editado com sucesso e aparecer as alterações na tabela de usuarios</t>
+  </si>
+  <si>
+    <t>Crepioca, crepioca , 10.00, Pratos Saudáveis, 1.jpg</t>
+  </si>
+  <si>
+    <t>Pratos Saudáveis, Pratos Saudáveis, pat.jfif</t>
+  </si>
+  <si>
+    <t>UC03 - Cadastrar-se</t>
+  </si>
+  <si>
+    <t>feliper297@gmail.com, 123</t>
+  </si>
+  <si>
+    <t>marina@gmail.com, 123</t>
+  </si>
+  <si>
+    <t>Marina Santos, 444.555.555-55,  (66) 55555-5555, marina@gmail.com, 123</t>
+  </si>
+  <si>
+    <t>marina@gmail.com</t>
+  </si>
+  <si>
+    <t>marina@gmail.com, Japão, 25 , Jardim das Nações, Salto</t>
+  </si>
+  <si>
+    <t>444.111.111-11, Jose Silva, (55) 55555-5555, jose@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44444444444, 2
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -481,6 +476,18 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -882,7 +889,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -898,8 +905,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1017,12 +1025,25 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="Bom" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Célula de Verificação" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Entrada" xfId="4" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8"/>
     <cellStyle name="Neutra" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -1916,7 +1937,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="IT4" s="8"/>
     </row>
@@ -1962,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:254" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1973,13 +1994,13 @@
         <v>28</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
@@ -1988,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2013,14 +2034,14 @@
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
+      <c r="C10" s="49">
+        <v>17</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
@@ -2050,16 +2071,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F11" s="19">
         <v>0</v>
@@ -2188,7 +2209,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2234,7 +2255,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="IT4" s="8"/>
     </row>
@@ -2285,16 +2306,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -2324,16 +2345,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="49">
+        <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
@@ -2363,16 +2384,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="19">
         <v>0</v>
@@ -2490,10 +2511,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F687-7441-4253-B2B6-0A99F6DFEA31}">
   <dimension ref="A1:IT19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C22" sqref="C22"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2527,7 +2548,7 @@
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -2539,7 +2560,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="22" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="IT4" s="8"/>
     </row>
@@ -2583,21 +2604,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:254" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -2622,21 +2643,21 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
@@ -2666,16 +2687,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F11" s="19">
         <v>0</v>
@@ -2684,21 +2705,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:254" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:254" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F12" s="19">
         <v>0</v>
@@ -2792,8 +2813,13 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{CA908C9D-8280-4304-9C09-27D3FA2A9C4E}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{45940653-8B4D-46BA-B757-2417D7A4F884}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{B99A6E24-492A-4550-9815-31DE778251ED}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
@@ -2805,10 +2831,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AC82AE-A7DB-4B81-A4A2-906EBF7A9F21}">
   <dimension ref="A1:IT19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C22" sqref="C22"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2854,7 +2880,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="IT4" s="8"/>
     </row>
@@ -2872,7 +2898,7 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="IT6" s="8"/>
     </row>
@@ -2900,21 +2926,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:254" s="10" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>79</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -2944,16 +2970,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
@@ -2983,16 +3009,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F11" s="19">
         <v>0</v>
@@ -3097,8 +3123,11 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{61269BD3-C543-4D15-A49B-663449C6178F}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
@@ -3110,10 +3139,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68A3B4D-AB66-449B-8D6F-DE0516ABCA06}">
   <dimension ref="A1:IT19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C22" sqref="C22"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9:G11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3159,7 +3188,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="IT4" s="8"/>
     </row>
@@ -3210,16 +3239,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -3249,16 +3278,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="C10" s="49">
+        <v>22</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
@@ -3288,16 +3317,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F11" s="19">
         <v>0</v>

--- a/Desenvolvimento/4.Teste/HD - Roteiro de Teste.xlsx
+++ b/Desenvolvimento/4.Teste/HD - Roteiro de Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Área de Trabalho\Healthy_Delivery\Desenvolvimento\4.Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD65BC5F-DB72-467C-8890-992905FAFE06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2938CC4B-3D4D-457C-8631-6A870C455460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="913" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="913" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="UC02 - Gerenciar Categoria" sheetId="26" r:id="rId4"/>
     <sheet name="UC03 - Cadastrar-se" sheetId="31" r:id="rId5"/>
     <sheet name="UC04 - Fazer pedido" sheetId="32" r:id="rId6"/>
-    <sheet name="UC05 - Gerenciar Balconistas" sheetId="34" r:id="rId7"/>
+    <sheet name="UC05 - Fazer Login" sheetId="35" r:id="rId7"/>
+    <sheet name="UC06 - Acompanhar pedidos" sheetId="34" r:id="rId8"/>
+    <sheet name="UC07 - Manter Balconistas " sheetId="36" r:id="rId9"/>
+    <sheet name="UC08 - Manter locais" sheetId="37" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="___xlfn_IFERROR">NA()</definedName>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -279,6 +282,68 @@
   <si>
     <t xml:space="preserve">44444444444, 2
 </t>
+  </si>
+  <si>
+    <t>UC05 - Fazer Login</t>
+  </si>
+  <si>
+    <t>Para o cliente realizar o login é necessário ter se cadastrado anteriormente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Realizar login como cliente
+</t>
+  </si>
+  <si>
+    <t>jose@gmail.com , 123</t>
+  </si>
+  <si>
+    <t>jose@gmail.com</t>
+  </si>
+  <si>
+    <t>UC06 - Acompanhar pedidos</t>
+  </si>
+  <si>
+    <t>Pedidos do Cliente</t>
+  </si>
+  <si>
+    <t>00:42:33, 08/01/2021, 44444444444, 210.00, Mercado Pago</t>
+  </si>
+  <si>
+    <t>Assim que for feito os pedidos eles devem ser listados no painel do cliente</t>
+  </si>
+  <si>
+    <t>Pedidos no Painel do Balconista</t>
+  </si>
+  <si>
+    <t>Os pedidos feitos pelos clientes devem ser listados no menu de “Pedidos” e os pedidos concluidos devem ser listados em “Pedidos Concluidos”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>UC08 - Manter locais</t>
+  </si>
+  <si>
+    <t>Cadastrar Locais</t>
+  </si>
+  <si>
+    <t>Panorama</t>
+  </si>
+  <si>
+    <t>Mensagem que o Local foi cadastrado com sucesso</t>
+  </si>
+  <si>
+    <t>Excluir Locais</t>
+  </si>
+  <si>
+    <t>Editar Locais</t>
+  </si>
+  <si>
+    <t>Os locais serem excluidos com sucesso e não ser mais listados na tabela de locais</t>
+  </si>
+  <si>
+    <t>O local ser editado com sucesso e aparecer as alterações na tabela de locais</t>
   </si>
 </sst>
 </file>
@@ -907,7 +972,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,6 +1069,18 @@
     <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,16 +1102,13 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1510,18 +1584,18 @@
     <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="32"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="33"/>
@@ -1845,6 +1919,311 @@
   <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1E92F0-3F38-43FC-8961-AE6DFFB52B9D}">
+  <dimension ref="A1:IT19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="254" width="9.140625" style="7"/>
+    <col min="255" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="IT1" s="8"/>
+    </row>
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="49">
+        <v>3</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="IT2" s="8"/>
+    </row>
+    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="IT3" s="8"/>
+    </row>
+    <row r="4" spans="1:254" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="IT4" s="8"/>
+    </row>
+    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="22"/>
+      <c r="IT5" s="8"/>
+    </row>
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="IT6" s="8"/>
+    </row>
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="42">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:254" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:254" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1908,34 +2287,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="49">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="IT2" s="8"/>
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="22" t="s">
         <v>33</v>
       </c>
@@ -2034,7 +2413,7 @@
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="42">
         <v>17</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -2226,34 +2605,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="49">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="IT2" s="8"/>
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="22" t="s">
         <v>34</v>
       </c>
@@ -2347,7 +2726,7 @@
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="42">
         <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -2531,34 +2910,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="49">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="IT2" s="8"/>
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="22" t="s">
         <v>50</v>
       </c>
@@ -2608,10 +2987,10 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="43" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2650,7 +3029,7 @@
       <c r="B10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="44" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -2712,7 +3091,7 @@
       <c r="B12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="44" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -2831,8 +3210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AC82AE-A7DB-4B81-A4A2-906EBF7A9F21}">
   <dimension ref="A1:IT19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C22" sqref="C22"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -2851,34 +3230,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="49">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="IT2" s="8"/>
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="22" t="s">
         <v>56</v>
       </c>
@@ -2933,7 +3312,7 @@
       <c r="B9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="43" t="s">
         <v>79</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -3136,13 +3515,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68A3B4D-AB66-449B-8D6F-DE0516ABCA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E198C27A-EF11-495C-B942-BF5AA97916D0}">
   <dimension ref="A1:IT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C22" sqref="C22"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3159,37 +3538,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="49">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="IT2" s="8"/>
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="22"/>
       <c r="IT4" s="8"/>
     </row>
     <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3206,7 +3583,7 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="23" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="IT6" s="8"/>
     </row>
@@ -3234,18 +3611,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>41</v>
@@ -3273,18 +3650,18 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="49">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>85</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>41</v>
@@ -3312,6 +3689,609 @@
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
     </row>
+    <row r="11" spans="1:254" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:254" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{404C33BC-6AA9-49C7-99B3-B65D69A4C9A4}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{BF7E3140-9221-48BE-B9A7-4C07D884BD5D}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{82134854-3900-4C09-A103-8938E7B4A11E}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68A3B4D-AB66-449B-8D6F-DE0516ABCA06}">
+  <dimension ref="A1:IT19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="254" width="9.140625" style="7"/>
+    <col min="255" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="IT1" s="8"/>
+    </row>
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="49">
+        <v>2</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="IT2" s="8"/>
+    </row>
+    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="IT3" s="8"/>
+    </row>
+    <row r="4" spans="1:254" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="IT4" s="8"/>
+    </row>
+    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="22"/>
+      <c r="IT5" s="8"/>
+    </row>
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="IT6" s="8"/>
+    </row>
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:254" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:254" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A530C7A4-1124-40F8-8D9B-411206911792}">
+  <dimension ref="A1:IT19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="254" width="9.140625" style="7"/>
+    <col min="255" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="IT1" s="8"/>
+    </row>
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="49">
+        <v>3</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="IT2" s="8"/>
+    </row>
+    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="IT3" s="8"/>
+    </row>
+    <row r="4" spans="1:254" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="IT4" s="8"/>
+    </row>
+    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="22"/>
+      <c r="IT5" s="8"/>
+    </row>
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="IT6" s="8"/>
+    </row>
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="42">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
     <row r="11" spans="1:254" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>3</v>
